--- a/assignments/307.xlsx
+++ b/assignments/307.xlsx
@@ -54,24 +54,60 @@
     <t>307D</t>
   </si>
   <si>
+    <t>307E</t>
+  </si>
+  <si>
+    <t>307B</t>
+  </si>
+  <si>
     <t>307A</t>
   </si>
   <si>
     <t>307C</t>
   </si>
   <si>
-    <t>307B</t>
-  </si>
-  <si>
-    <t>307E</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
     <t>Cost</t>
   </si>
   <si>
+    <t>Tuned Mass Damper (week)</t>
+  </si>
+  <si>
+    <t>Tuned Mass Damper (rank)</t>
+  </si>
+  <si>
+    <t>Tuned Mass Damper (cost)</t>
+  </si>
+  <si>
+    <t>Piezoelectric (week)</t>
+  </si>
+  <si>
+    <t>Piezoelectric (rank)</t>
+  </si>
+  <si>
+    <t>Piezoelectric (cost)</t>
+  </si>
+  <si>
+    <t>Pump (week)</t>
+  </si>
+  <si>
+    <t>Pump (rank)</t>
+  </si>
+  <si>
+    <t>Pump (cost)</t>
+  </si>
+  <si>
+    <t>Dynamic Balancing (week)</t>
+  </si>
+  <si>
+    <t>Dynamic Balancing (rank)</t>
+  </si>
+  <si>
+    <t>Dynamic Balancing (cost)</t>
+  </si>
+  <si>
     <t>Acoustics (week)</t>
   </si>
   <si>
@@ -79,42 +115,6 @@
   </si>
   <si>
     <t>Acoustics (cost)</t>
-  </si>
-  <si>
-    <t>Pump (week)</t>
-  </si>
-  <si>
-    <t>Pump (rank)</t>
-  </si>
-  <si>
-    <t>Pump (cost)</t>
-  </si>
-  <si>
-    <t>Tuned Mass Damper (week)</t>
-  </si>
-  <si>
-    <t>Tuned Mass Damper (rank)</t>
-  </si>
-  <si>
-    <t>Tuned Mass Damper (cost)</t>
-  </si>
-  <si>
-    <t>Piezoelectric (week)</t>
-  </si>
-  <si>
-    <t>Piezoelectric (rank)</t>
-  </si>
-  <si>
-    <t>Piezoelectric (cost)</t>
-  </si>
-  <si>
-    <t>Dynamic Balancing (week)</t>
-  </si>
-  <si>
-    <t>Dynamic Balancing (rank)</t>
-  </si>
-  <si>
-    <t>Dynamic Balancing (cost)</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -656,80 +656,80 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>1.0001</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>1.0001</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>1.0001</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.0001</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>4</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>1.0001</v>
+        <v>6.0001</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>1.0001</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.0001</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -739,49 +739,49 @@
       <c r="B5">
         <v>1.0001</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>5.0001</v>
+        <v>1.0001</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6">
-        <v>3.0001</v>
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0.0001</v>
       </c>
     </row>
   </sheetData>
@@ -804,7 +804,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>12.0005</v>
+        <v>13.0004</v>
       </c>
     </row>
   </sheetData>
@@ -842,19 +842,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>5.118216247002567E-05</v>
+        <v>3.00005118216247</v>
       </c>
       <c r="C2">
-        <v>1.000095046369633</v>
+        <v>2.000095046369633</v>
       </c>
       <c r="D2">
-        <v>3.000014415961272</v>
+        <v>1.441596127196337E-05</v>
       </c>
       <c r="E2">
-        <v>2.000094864944714</v>
+        <v>1.000094864944714</v>
       </c>
       <c r="F2">
         <v>4.000031183145201</v>
@@ -862,42 +862,42 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>3.000042332644897</v>
+        <v>4.000042332644897</v>
       </c>
       <c r="C3">
-        <v>2.000082770259382</v>
+        <v>1.000082770259382</v>
       </c>
       <c r="D3">
-        <v>4.091991363691613E-05</v>
+        <v>2.000040919913637</v>
       </c>
       <c r="E3">
-        <v>1.000054959368767</v>
+        <v>5.495936876730595E-05</v>
       </c>
       <c r="F3">
-        <v>4.000002755911324</v>
+        <v>3.000002755911324</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>4.000075351310867</v>
+        <v>7.535131086748066E-05</v>
       </c>
       <c r="C4">
-        <v>1.000053814331322</v>
+        <v>3.000053814331322</v>
       </c>
       <c r="D4">
         <v>2.00003297317165</v>
       </c>
       <c r="E4">
-        <v>7.884287034284043E-05</v>
+        <v>1.000078842870343</v>
       </c>
       <c r="F4">
-        <v>3.000030319482929</v>
+        <v>4.000030319482929</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -908,7 +908,7 @@
         <v>4.534978894806515E-05</v>
       </c>
       <c r="C5">
-        <v>3.000013404169725</v>
+        <v>4.000013404169724</v>
       </c>
       <c r="D5">
         <v>2.000040311298645</v>
@@ -917,27 +917,27 @@
         <v>1.000020345524068</v>
       </c>
       <c r="F5">
-        <v>4.000026231334044</v>
+        <v>3.000026231334044</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>7.503646726300526E-05</v>
       </c>
       <c r="C6">
-        <v>4.000028040875798</v>
+        <v>1.000028040875799</v>
       </c>
       <c r="D6">
-        <v>2.000048519097443</v>
+        <v>3.000048519097443</v>
       </c>
       <c r="E6">
-        <v>1.00009807371998</v>
+        <v>2.00009807371998</v>
       </c>
       <c r="F6">
-        <v>3.000096165719366</v>
+        <v>4.000096165719366</v>
       </c>
     </row>
   </sheetData>
@@ -960,17 +960,17 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -980,7 +980,7 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>1</v>
